--- a/uploads/Adquisiciones/adquisiciones.xlsx
+++ b/uploads/Adquisiciones/adquisiciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto28/Proyecto16/Proyecto11/proyecto2/uploads/Adquisiciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/Adquisiciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0D15AC-B243-4F33-AAC4-09C868E12DF3}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0064607A-6EEE-4A5F-8758-6BF4E1D49C8C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,12 @@
     <font>
       <sz val="8"/>
       <color theme="8" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -187,6 +193,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +534,7 @@
   <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H297" sqref="H297"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,125 +547,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>400</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9">
         <v>98.3</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>401</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
         <v>98.3</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>402</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
         <v>98.3</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>403</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
         <v>98.3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>404</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
         <v>65.849999999999994</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>405</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
         <v>65.849999999999994</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>406</v>
       </c>
@@ -672,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>407</v>
       </c>
@@ -689,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>408</v>
       </c>
@@ -706,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>409</v>
       </c>
@@ -723,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>410</v>
       </c>
@@ -740,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>411</v>
       </c>
@@ -757,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>412</v>
       </c>
@@ -774,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>413</v>
       </c>
@@ -791,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>11066</v>
       </c>
@@ -802,7 +812,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>11079</v>
       </c>
@@ -813,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>11080</v>
       </c>
@@ -824,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>11081</v>
       </c>
@@ -835,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>11082</v>
       </c>
@@ -846,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>11083</v>
       </c>
@@ -857,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>11084</v>
       </c>
@@ -868,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>11085</v>
       </c>
@@ -879,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>11086</v>
       </c>
@@ -890,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>11087</v>
       </c>
@@ -901,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>11089</v>
       </c>
@@ -912,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>11090</v>
       </c>
@@ -923,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>11091</v>
       </c>
@@ -934,7 +944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>11092</v>
       </c>
@@ -945,7 +955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>11093</v>
       </c>
@@ -956,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>11094</v>
       </c>
@@ -967,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>11095</v>
       </c>
@@ -978,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>11096</v>
       </c>
@@ -989,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>11097</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>11098</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>11099</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>11100</v>
       </c>
@@ -1033,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>11101</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>11102</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>11103</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>11104</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>11105</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>11106</v>
       </c>
@@ -1099,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>11111</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>11124</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>11129</v>
       </c>
@@ -1132,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>11132</v>
       </c>
@@ -1143,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>11133</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>11140</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>11141</v>
       </c>
@@ -1176,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>11143</v>
       </c>
@@ -4801,8 +4811,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>